--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-iam-project-category.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-iam-project-category.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7BA4A-476A-485B-8981-24C677FB90C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -85,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -104,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -123,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -155,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -174,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -193,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -215,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -236,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -278,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -299,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -311,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -330,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -342,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -361,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -380,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -399,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -418,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -466,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -485,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -504,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -523,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -535,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -554,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -573,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -593,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -612,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -632,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -651,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -663,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -682,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -701,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -725,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -744,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -763,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -782,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -801,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -813,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -832,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -843,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -864,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -875,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -894,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -913,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -937,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -956,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -976,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -996,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1016,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1037,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1057,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1092,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1113,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1125,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1144,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1165,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1184,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1197,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1216,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1235,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1254,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1269,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1288,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1307,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1326,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1345,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1361,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1371,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1390,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1406,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1416,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1435,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1450,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1508,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1532,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1551,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1570,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1590,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1611,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1622,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1632,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1644,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1663,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1682,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1701,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1721,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1740,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1759,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1779,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1798,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1817,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1836,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1856,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1868,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1879,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1889,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1901,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1920,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1932,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1951,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1971,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2000,7 +1888,6 @@
   </si>
   <si>
     <t>项目类型</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FD_PROJECT_CATEGORY</t>
@@ -2012,6 +1899,9 @@
     <t>#CODE</t>
   </si>
   <si>
+    <t>LABEL_CODE</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -2024,12 +1914,10 @@
     <t>DISPLAY_FLAG</t>
   </si>
   <si>
+    <t>sequence</t>
+  </si>
+  <si>
     <t>*</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_CODE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>N_TEST</t>
@@ -2044,11 +1932,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2057,10 +1949,75 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2079,13 +2036,175 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2097,23 +2216,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2122,99 +2232,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2245,8 +2264,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2347,13 +2552,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2362,32 +2839,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2397,66 +2886,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2529,9 +3021,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2789,389 +3278,398 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="45" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="44" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="47" t="s">
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDCD66-3F4B-4249-A4C7-C8D31AF2CAC4}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.1111111111111" customWidth="1"/>
+    <col min="6" max="7" width="22.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="E4" s="31" t="s">
+    <row r="4" spans="5:8">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="40">
+    <row r="7" spans="1:12">
+      <c r="A7" s="5">
         <v>43960</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="D8" s="36"/>
-      <c r="E8" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="49" t="s">
+    <row r="8" spans="4:12">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="F8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="H8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="15">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="D9" s="36"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+    <row r="9" spans="4:11">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="D10" s="36"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+    <row r="10" spans="4:11">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="E12" s="41"/>
+    <row r="12" spans="5:5">
+      <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="E13" s="41"/>
+    <row r="13" spans="5:5">
+      <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="E14" s="41"/>
+    <row r="14" spans="5:5">
+      <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="E15" s="41"/>
+    <row r="15" spans="5:5">
+      <c r="E15" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-iam-project-category.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-iam-project-category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -1905,7 +1905,10 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>name:zh_CN</t>
+  </si>
+  <si>
+    <t>name:en_US</t>
   </si>
   <si>
     <t>BUILT_IN_FLAG</t>
@@ -1927,6 +1930,9 @@
   </si>
   <si>
     <t>测试管理</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1934,13 +1940,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1969,12 +1975,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2040,14 +2040,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2061,71 +2161,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2137,54 +2176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2266,24 +2266,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2296,7 +2278,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,97 +2428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,43 +2446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2553,30 +2553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2609,11 +2585,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2633,11 +2616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2650,182 +2639,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2837,46 +2837,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2889,7 +2888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3290,12 +3289,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -3309,136 +3308,136 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="34"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3448,64 +3447,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3528,20 +3527,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="11.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="22.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="10" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3570,7 +3569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>43960</v>
       </c>
@@ -3595,65 +3594,73 @@
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="M7" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:13">
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:12">
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:12">
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" s="13"/>
